--- a/biology/Zoologie/Alyssa_et_les_Dauphins/Alyssa_et_les_Dauphins.xlsx
+++ b/biology/Zoologie/Alyssa_et_les_Dauphins/Alyssa_et_les_Dauphins.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alyssa et les Dauphins (Eye of the Dolphin) est un film américain réalisé par Michael D. Sellers, sorti en 2007.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Alyssa, une jeune fille de 14 ans, a perdu sa mère. Elle vit depuis un an chez sa grand-mère mais est envoyée chez son père Hawk, dont elle ignorait l'existence. Ce dernier est un chercheur et s'occupe d'une réserve naturelle de dauphins dans les Bahamas. L'arrivée d'Alyssa tombe on ne peut plus mal pour celui-ci : il doit défendre son centre de recherche contre des politiciens véreux voulant faire un parc d'attractions touristique, et a quelques difficultés à communiquer avec sa fille.
 Alyssa s'adapte peu à peu à ce nouvel environnement et se découvre le même don que son père, celui de communiquer avec les cétacés, ce qui l'amène à se lier d'amitié avec un dauphin sauvage. Quand le centre de recherche de son père est sur le point de fermer ses portes, Alyssa et son ami dauphin vont s'unir pour empêcher sa fermeture.
@@ -543,7 +557,9 @@
           <t>Fiche Technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Alyssa et les Dauphins
 Titre original : Eye of the Dolphin
@@ -590,7 +606,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Carly Schroeder (VF : Jessica Monceau) : Alyssa
 Adrian Dunbar (VF : Lionel Tua) : Dr. James Hawk
@@ -626,7 +644,9 @@
           <t>Doublage français</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Version française : VF Productions
 Direction artistique : Yann Le Madic
